--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1518159.55331773</v>
+        <v>1515617.978174805</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10009295.05931665</v>
+        <v>10009295.05931664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>321.2529077939342</v>
       </c>
       <c r="D11" t="n">
-        <v>310.6630576436096</v>
+        <v>172.8005923040528</v>
       </c>
       <c r="E11" t="n">
         <v>337.9103860951884</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>366.9017416763801</v>
       </c>
       <c r="H11" t="n">
-        <v>250.5877804102471</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.16777781110248</v>
+        <v>65.16777781110247</v>
       </c>
       <c r="T11" t="n">
         <v>159.8979861625468</v>
@@ -1436,7 +1436,7 @@
         <v>325.7111167013957</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.6694506055556</v>
+        <v>342.2179546789802</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,7 +1534,7 @@
         <v>104.595489041139</v>
       </c>
       <c r="E13" t="n">
-        <v>102.4139786694958</v>
+        <v>31.9607755735651</v>
       </c>
       <c r="F13" t="n">
         <v>101.4010640458579</v>
@@ -1546,7 +1546,7 @@
         <v>100.7350309372474</v>
       </c>
       <c r="I13" t="n">
-        <v>52.33243643276474</v>
+        <v>52.33243643276473</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.91216869297396</v>
       </c>
       <c r="S13" t="n">
         <v>145.7490413543685</v>
@@ -1591,7 +1591,7 @@
         <v>242.5030143595176</v>
       </c>
       <c r="X13" t="n">
-        <v>156.1486370090066</v>
+        <v>181.6896714119638</v>
       </c>
       <c r="Y13" t="n">
         <v>174.5646693750214</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.7138576864072</v>
+        <v>338.7138576864073</v>
       </c>
       <c r="C14" t="n">
-        <v>321.2529077939342</v>
+        <v>183.3904424543755</v>
       </c>
       <c r="D14" t="n">
         <v>310.6630576436096</v>
       </c>
       <c r="E14" t="n">
-        <v>337.9103860951884</v>
+        <v>337.9103860951885</v>
       </c>
       <c r="F14" t="n">
-        <v>362.8560617646381</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>366.9017416763801</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.16777781110251</v>
+        <v>65.16777781110252</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>159.8979861625469</v>
       </c>
       <c r="U14" t="n">
-        <v>149.8869215332417</v>
+        <v>206.9751879818287</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>283.7322744930616</v>
       </c>
       <c r="W14" t="n">
-        <v>305.2209847403396</v>
+        <v>305.2209847403397</v>
       </c>
       <c r="X14" t="n">
         <v>325.7111167013957</v>
@@ -1771,7 +1771,7 @@
         <v>104.595489041139</v>
       </c>
       <c r="E16" t="n">
-        <v>102.4139786694958</v>
+        <v>102.4139786694959</v>
       </c>
       <c r="F16" t="n">
         <v>101.4010640458579</v>
@@ -1780,10 +1780,10 @@
         <v>122.0058242819549</v>
       </c>
       <c r="H16" t="n">
-        <v>100.7350309372474</v>
+        <v>30.28182784131559</v>
       </c>
       <c r="I16" t="n">
-        <v>52.33243643276477</v>
+        <v>52.3324364327648</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.91216869297401</v>
+        <v>44.91216869297403</v>
       </c>
       <c r="S16" t="n">
         <v>145.7490413543686</v>
@@ -1819,7 +1819,7 @@
         <v>175.5289652990959</v>
       </c>
       <c r="U16" t="n">
-        <v>242.1918542285395</v>
+        <v>242.1918542285396</v>
       </c>
       <c r="V16" t="n">
         <v>208.1176593467547</v>
@@ -1828,7 +1828,7 @@
         <v>242.5030143595177</v>
       </c>
       <c r="X16" t="n">
-        <v>111.2364683160324</v>
+        <v>181.6896714119638</v>
       </c>
       <c r="Y16" t="n">
         <v>174.5646693750215</v>
@@ -1850,16 +1850,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>10.92960745128237</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>236.6002797240826</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
         <v>280.7771218515423</v>
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4790285486647</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
@@ -2147,7 +2147,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>197.2952558794576</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2318,22 +2318,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E25" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2530,7 +2530,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2539,10 +2539,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404354</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
         <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231188</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X29" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2953,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124751</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145469</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3013,10 +3013,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,22 +3187,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124552</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
         <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231188</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695832</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X35" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3487,10 +3487,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
         <v>307.7079050020903</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3664,22 +3664,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403098</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1299.253663849334</v>
+        <v>1277.487498118603</v>
       </c>
       <c r="C11" t="n">
-        <v>974.7557771887948</v>
+        <v>952.9896114580637</v>
       </c>
       <c r="D11" t="n">
-        <v>660.9547088619164</v>
+        <v>778.443558625687</v>
       </c>
       <c r="E11" t="n">
-        <v>319.6310865435441</v>
+        <v>437.1199363073149</v>
       </c>
       <c r="F11" t="n">
-        <v>319.6310865435441</v>
+        <v>437.1199363073149</v>
       </c>
       <c r="G11" t="n">
-        <v>319.6310865435441</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3259.779783416138</v>
+        <v>3259.779783416139</v>
       </c>
       <c r="T11" t="n">
-        <v>3098.266666080232</v>
+        <v>3098.266666080233</v>
       </c>
       <c r="U11" t="n">
-        <v>2889.20081963394</v>
+        <v>2889.200819633941</v>
       </c>
       <c r="V11" t="n">
-        <v>2602.602562570241</v>
+        <v>2602.602562570242</v>
       </c>
       <c r="W11" t="n">
-        <v>2294.298537579999</v>
+        <v>2294.29853758</v>
       </c>
       <c r="X11" t="n">
-        <v>1965.297409598792</v>
+        <v>1965.297409598793</v>
       </c>
       <c r="Y11" t="n">
-        <v>1641.388873633584</v>
+        <v>1619.622707902853</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,25 +5106,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,19 +5133,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.3612684827028</v>
+        <v>709.1964168706515</v>
       </c>
       <c r="C13" t="n">
-        <v>655.889715834668</v>
+        <v>584.7248642226167</v>
       </c>
       <c r="D13" t="n">
-        <v>550.2377067022042</v>
+        <v>479.0728550901531</v>
       </c>
       <c r="E13" t="n">
-        <v>446.7892433996832</v>
+        <v>446.7892433996833</v>
       </c>
       <c r="F13" t="n">
-        <v>344.3639261816449</v>
+        <v>344.3639261816451</v>
       </c>
       <c r="G13" t="n">
-        <v>221.1257198362359</v>
+        <v>221.1257198362361</v>
       </c>
       <c r="H13" t="n">
         <v>119.373163333966</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>155.2145330164216</v>
+        <v>155.2145330164217</v>
       </c>
       <c r="K13" t="n">
-        <v>402.7815001026005</v>
+        <v>402.7815001026007</v>
       </c>
       <c r="L13" t="n">
-        <v>762.9210826883992</v>
+        <v>762.9210826883995</v>
       </c>
       <c r="M13" t="n">
         <v>1150.657912425251</v>
@@ -5221,28 +5221,28 @@
         <v>2275.932821186913</v>
       </c>
       <c r="R13" t="n">
-        <v>2275.932821186913</v>
+        <v>2230.566994224313</v>
       </c>
       <c r="S13" t="n">
-        <v>2128.711567293612</v>
+        <v>2083.345740331012</v>
       </c>
       <c r="T13" t="n">
-        <v>1951.40958214301</v>
+        <v>1906.04375518041</v>
       </c>
       <c r="U13" t="n">
-        <v>1706.771345548525</v>
+        <v>1661.405518585926</v>
       </c>
       <c r="V13" t="n">
-        <v>1496.551487622511</v>
+        <v>1451.185660659911</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.598947865422</v>
+        <v>1206.233120902822</v>
       </c>
       <c r="X13" t="n">
-        <v>1093.873051896728</v>
+        <v>1022.708200284677</v>
       </c>
       <c r="Y13" t="n">
-        <v>917.5451030330704</v>
+        <v>846.3802514210191</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1783.263788122841</v>
+        <v>1277.487498118601</v>
       </c>
       <c r="C14" t="n">
-        <v>1458.765901462301</v>
+        <v>1092.244626952565</v>
       </c>
       <c r="D14" t="n">
-        <v>1144.964833135423</v>
+        <v>778.4435586256868</v>
       </c>
       <c r="E14" t="n">
-        <v>803.6412108170505</v>
+        <v>437.1199363073149</v>
       </c>
       <c r="F14" t="n">
-        <v>437.1199363073148</v>
+        <v>437.1199363073149</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3259.779783416138</v>
+        <v>3259.779783416137</v>
       </c>
       <c r="T14" t="n">
-        <v>3259.779783416138</v>
+        <v>3098.266666080231</v>
       </c>
       <c r="U14" t="n">
-        <v>3108.37885257448</v>
+        <v>2889.200819633939</v>
       </c>
       <c r="V14" t="n">
-        <v>3108.37885257448</v>
+        <v>2602.60256257024</v>
       </c>
       <c r="W14" t="n">
-        <v>2800.074827584238</v>
+        <v>2294.298537579999</v>
       </c>
       <c r="X14" t="n">
-        <v>2471.07369960303</v>
+        <v>1965.297409598791</v>
       </c>
       <c r="Y14" t="n">
-        <v>2125.39899790709</v>
+        <v>1619.622707902851</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>780.3612684827029</v>
+        <v>709.1964168706501</v>
       </c>
       <c r="C16" t="n">
-        <v>655.8897158346681</v>
+        <v>584.7248642226152</v>
       </c>
       <c r="D16" t="n">
-        <v>550.2377067022044</v>
+        <v>479.0728550901515</v>
       </c>
       <c r="E16" t="n">
-        <v>446.7892433996834</v>
+        <v>375.6243917876304</v>
       </c>
       <c r="F16" t="n">
-        <v>344.3639261816451</v>
+        <v>273.1990745695921</v>
       </c>
       <c r="G16" t="n">
-        <v>221.1257198362361</v>
+        <v>149.9608682241831</v>
       </c>
       <c r="H16" t="n">
-        <v>119.3731633339659</v>
+        <v>119.3731633339653</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>155.2145330164218</v>
+        <v>155.2145330164215</v>
       </c>
       <c r="K16" t="n">
-        <v>402.7815001026007</v>
+        <v>402.7815001026004</v>
       </c>
       <c r="L16" t="n">
-        <v>762.9210826883993</v>
+        <v>762.9210826883991</v>
       </c>
       <c r="M16" t="n">
         <v>1150.657912425251</v>
@@ -5449,37 +5449,37 @@
         <v>1535.646073268418</v>
       </c>
       <c r="O16" t="n">
-        <v>1878.555456326134</v>
+        <v>1878.555456326133</v>
       </c>
       <c r="P16" t="n">
-        <v>2154.742740897096</v>
+        <v>2154.742740897095</v>
       </c>
       <c r="Q16" t="n">
-        <v>2275.932821186913</v>
+        <v>2275.932821186912</v>
       </c>
       <c r="R16" t="n">
-        <v>2230.566994224313</v>
+        <v>2230.566994224312</v>
       </c>
       <c r="S16" t="n">
-        <v>2083.345740331012</v>
+        <v>2083.34574033101</v>
       </c>
       <c r="T16" t="n">
-        <v>1906.04375518041</v>
+        <v>1906.043755180408</v>
       </c>
       <c r="U16" t="n">
-        <v>1661.405518585925</v>
+        <v>1661.405518585924</v>
       </c>
       <c r="V16" t="n">
-        <v>1451.185660659911</v>
+        <v>1451.18566065991</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.233120902822</v>
+        <v>1206.233120902821</v>
       </c>
       <c r="X16" t="n">
-        <v>1093.873051896729</v>
+        <v>1022.708200284676</v>
       </c>
       <c r="Y16" t="n">
-        <v>917.5451030330705</v>
+        <v>846.3802514210178</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1665.976477910008</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.463593917669</v>
+        <v>979.8546354718729</v>
       </c>
       <c r="D17" t="n">
-        <v>1033.647528258992</v>
+        <v>669.038569813195</v>
       </c>
       <c r="E17" t="n">
-        <v>695.3089086088211</v>
+        <v>669.038569813195</v>
       </c>
       <c r="F17" t="n">
-        <v>684.268901082273</v>
+        <v>305.5022979716608</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>305.5022979716608</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T17" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U17" t="n">
-        <v>3262.764786084339</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V17" t="n">
-        <v>2979.151531688842</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W17" t="n">
-        <v>2673.832509366801</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X17" t="n">
-        <v>2347.816384053795</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y17" t="n">
-        <v>2005.126685026056</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K19" t="n">
         <v>408.6327023328085</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1340.033859359386</v>
+        <v>1650.849925018064</v>
       </c>
       <c r="C20" t="n">
-        <v>1018.520975367048</v>
+        <v>1329.337041025726</v>
       </c>
       <c r="D20" t="n">
         <v>1018.520975367048</v>
       </c>
       <c r="E20" t="n">
-        <v>680.1823557168769</v>
+        <v>680.1823557168774</v>
       </c>
       <c r="F20" t="n">
         <v>316.6460838753429</v>
@@ -5744,58 +5744,58 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638543</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243046</v>
+        <v>2820.623417021137</v>
       </c>
       <c r="W20" t="n">
-        <v>2309.223550921005</v>
+        <v>2515.304394699097</v>
       </c>
       <c r="X20" t="n">
-        <v>1983.207425607998</v>
+        <v>2189.28826938609</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.51772658026</v>
+        <v>1990.000132134112</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
         <v>765.151745215813</v>
@@ -5841,7 +5841,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L22" t="n">
         <v>771.6978860337115</v>
@@ -5929,31 +5929,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V22" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
         <v>81.14691689668915</v>
@@ -5993,25 +5993,25 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L23" t="n">
-        <v>1178.153040037425</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M23" t="n">
-        <v>1711.68494470935</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N23" t="n">
-        <v>2258.463761768132</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O23" t="n">
-        <v>2761.436232647469</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309626</v>
@@ -6023,7 +6023,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
@@ -6042,73 +6042,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U24" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y24" t="n">
         <v>1124.393991965682</v>
@@ -6121,67 +6121,67 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899664</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D25" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G25" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I25" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982155</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350171</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W25" t="n">
         <v>1262.182746297367</v>
@@ -6190,7 +6190,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,31 +6224,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2735.569460712893</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6257,10 +6257,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6303,19 +6303,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,13 +6412,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398486</v>
@@ -6461,31 +6461,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6494,7 +6494,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6540,19 +6540,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698017</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899682</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257058</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913861</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.043718641549</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643414</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302725</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973148</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982176</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347425</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519681</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6689,7 +6689,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,31 +6698,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1986.936041136908</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.71485819569</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075027</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456137</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644868</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032356</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.55376099778</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246651</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
         <v>190.6561028572837</v>
@@ -6777,19 +6777,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6807,13 +6807,13 @@
         <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
         <v>1540.005790936169</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J35" t="n">
-        <v>399.9472504130735</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>733.7666241029199</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L35" t="n">
-        <v>1184.800837351328</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M35" t="n">
-        <v>1718.332742023253</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N35" t="n">
-        <v>2265.111559082035</v>
+        <v>2642.103738532151</v>
       </c>
       <c r="O35" t="n">
-        <v>3145.07620941149</v>
+        <v>3145.076209411488</v>
       </c>
       <c r="P35" t="n">
-        <v>3539.850575768668</v>
+        <v>3539.850575768666</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277654</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834456</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309624</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641919</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863829</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146291</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833284</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805546</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C37" t="n">
         <v>652.614500289966</v>
@@ -7084,49 +7084,49 @@
         <v>350.0437186415469</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J37" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960296</v>
       </c>
       <c r="K37" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973127</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982155</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350171</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386254</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557145</v>
@@ -7187,37 +7187,37 @@
         <v>2568.163811692541</v>
       </c>
       <c r="O38" t="n">
-        <v>3071.136282571877</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,28 +7336,28 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
         <v>1953.038372570351</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>943.9584648562252</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.992678104634</v>
+        <v>1339.011402386888</v>
       </c>
       <c r="M41" t="n">
-        <v>1928.524582776558</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.30339983534</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P41" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
         <v>449.4840331913842</v>
@@ -7564,19 +7564,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7585,7 +7585,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7603,7 +7603,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297367</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467794</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>924.7493799910139</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.783593239423</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M44" t="n">
-        <v>1909.315497911347</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285458</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>3080.016953737238</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873064</v>
@@ -7731,7 +7731,7 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.0917554489362</v>
+        <v>207.091755448938</v>
       </c>
       <c r="L8" t="n">
-        <v>219.6411280128592</v>
+        <v>219.6411280128615</v>
       </c>
       <c r="M8" t="n">
-        <v>212.4037444773033</v>
+        <v>212.4037444773058</v>
       </c>
       <c r="N8" t="n">
-        <v>211.1802466203525</v>
+        <v>211.1802466203551</v>
       </c>
       <c r="O8" t="n">
-        <v>212.8814793728437</v>
+        <v>212.8814793728461</v>
       </c>
       <c r="P8" t="n">
-        <v>216.5389132747556</v>
+        <v>216.5389132747577</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.2710458816636</v>
+        <v>211.2710458816652</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.6722392886279</v>
+        <v>121.6722392886287</v>
       </c>
       <c r="K9" t="n">
-        <v>129.0129692144939</v>
+        <v>129.0129692144952</v>
       </c>
       <c r="L9" t="n">
-        <v>126.6834126868976</v>
+        <v>126.6834126868993</v>
       </c>
       <c r="M9" t="n">
-        <v>128.2811752418596</v>
+        <v>128.2811752418615</v>
       </c>
       <c r="N9" t="n">
-        <v>117.1222094543783</v>
+        <v>117.1222094543803</v>
       </c>
       <c r="O9" t="n">
-        <v>129.5881775442788</v>
+        <v>129.5881775442806</v>
       </c>
       <c r="P9" t="n">
-        <v>123.5342869155117</v>
+        <v>123.5342869155131</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.002830014231</v>
+        <v>133.002830014232</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.0701282031719</v>
+        <v>128.0701282031729</v>
       </c>
       <c r="M10" t="n">
-        <v>131.7407984694286</v>
+        <v>131.7407984694296</v>
       </c>
       <c r="N10" t="n">
-        <v>120.6714018824956</v>
+        <v>120.6714018824966</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9778425048099</v>
+        <v>131.9778425048108</v>
       </c>
       <c r="P10" t="n">
-        <v>132.1843604371509</v>
+        <v>132.1843604371517</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>124.518591155006</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>62.52018570663859</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>336.8335818149103</v>
       </c>
       <c r="O26" t="n">
-        <v>117.905170275318</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.001785447392</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4533865158186</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>277.8321087236477</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>131.2335379367262</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>18.79169145623132</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>74.68679478748732</v>
       </c>
       <c r="P38" t="n">
-        <v>287.0017854473915</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>174.4519134245568</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>287.0017854473923</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>400.2032972882113</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>28.65608477603973</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.20055424148121</v>
+        <v>15.20055424148123</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>137.8624653395568</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>362.8560617646381</v>
       </c>
       <c r="G11" t="n">
-        <v>366.9017416763801</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>250.5877804102471</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.54850407342461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>70.4532030959307</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.91216869297398</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>25.54103440295722</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>137.8624653395588</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>362.8560617646381</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>250.5877804102471</v>
+        <v>250.5877804102472</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>159.8979861625468</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>57.08826644858694</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>283.7322744930616</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>70.45320309593188</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>70.45320309593141</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,16 +23738,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>348.9713016718365</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>11.03234804464531</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.2796764962233</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>141.9675461580035</v>
       </c>
     </row>
     <row r="21">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.886579864025407e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-2.039257651631488e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-4.504729922416573e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>961899.1660502777</v>
+        <v>961899.1660502783</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>826272.0326704162</v>
+        <v>826272.0326704159</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831629.9390717782</v>
+        <v>831629.9390717781</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915442.2689662244</v>
+        <v>915442.2689662245</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915442.2689662244</v>
+        <v>915442.2689662245</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553011.5286340008</v>
+      </c>
+      <c r="C2" t="n">
         <v>553011.5286340009</v>
-      </c>
-      <c r="C2" t="n">
-        <v>553011.5286340008</v>
       </c>
       <c r="D2" t="n">
         <v>553017.0189412942</v>
       </c>
       <c r="E2" t="n">
-        <v>512694.1648654861</v>
+        <v>512694.164865486</v>
       </c>
       <c r="F2" t="n">
-        <v>512694.164865486</v>
+        <v>512694.1648654859</v>
       </c>
       <c r="G2" t="n">
-        <v>516058.4316756443</v>
+        <v>516058.431675644</v>
       </c>
       <c r="H2" t="n">
-        <v>516058.4316756442</v>
+        <v>516058.4316756444</v>
       </c>
       <c r="I2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="J2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="K2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="L2" t="n">
         <v>554203.1946583914</v>
@@ -26350,10 +26350,10 @@
         <v>554203.1946583919</v>
       </c>
       <c r="O2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="P2" t="n">
         <v>554203.1946583918</v>
-      </c>
-      <c r="P2" t="n">
-        <v>554203.1946583915</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21768.4075480907</v>
+        <v>21768.40754808766</v>
       </c>
       <c r="E3" t="n">
-        <v>1138563.072304448</v>
+        <v>1138563.072304451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2364.122113215387</v>
+        <v>2364.122113215399</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902278</v>
+        <v>48646.25967902292</v>
       </c>
       <c r="J3" t="n">
-        <v>35215.98718165867</v>
+        <v>35215.98718165865</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2364.122113215381</v>
+        <v>2364.122113215348</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>35215.98718165864</v>
@@ -26421,16 +26421,16 @@
         <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>424104.3271603493</v>
+        <v>424104.3271603503</v>
       </c>
       <c r="E4" t="n">
         <v>54753.55820860587</v>
       </c>
       <c r="F4" t="n">
-        <v>54753.55820860585</v>
+        <v>54753.55820860586</v>
       </c>
       <c r="G4" t="n">
-        <v>57605.61344858626</v>
+        <v>57605.61344858623</v>
       </c>
       <c r="H4" t="n">
         <v>57605.61344858623</v>
@@ -26439,16 +26439,16 @@
         <v>80755.36360646601</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646604</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646599</v>
       </c>
       <c r="N4" t="n">
         <v>80755.36360646599</v>
@@ -26457,7 +26457,7 @@
         <v>80755.36360646598</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646599</v>
+        <v>80755.36360646601</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34181.71434720635</v>
+        <v>34181.71434720627</v>
       </c>
       <c r="E5" t="n">
-        <v>78007.05659436187</v>
+        <v>78007.05659436189</v>
       </c>
       <c r="F5" t="n">
-        <v>78007.05659436187</v>
+        <v>78007.05659436186</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="H5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="J5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480609</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88485.41919132505</v>
+        <v>88481.00561345683</v>
       </c>
       <c r="C6" t="n">
-        <v>88485.41919132494</v>
+        <v>88481.00561345695</v>
       </c>
       <c r="D6" t="n">
-        <v>72962.5698856478</v>
+        <v>72958.17664225333</v>
       </c>
       <c r="E6" t="n">
-        <v>-758629.5222419293</v>
+        <v>-758783.2593893136</v>
       </c>
       <c r="F6" t="n">
-        <v>379933.5500625183</v>
+        <v>379779.8129151374</v>
       </c>
       <c r="G6" t="n">
-        <v>377833.2027920609</v>
+        <v>377691.9258921245</v>
       </c>
       <c r="H6" t="n">
-        <v>380197.3249052763</v>
+        <v>380056.0480053403</v>
       </c>
       <c r="I6" t="n">
-        <v>335423.6296980967</v>
+        <v>335423.6296980966</v>
       </c>
       <c r="J6" t="n">
-        <v>348853.9021954608</v>
+        <v>348853.9021954605</v>
       </c>
       <c r="K6" t="n">
-        <v>384069.8893771191</v>
+        <v>384069.8893771195</v>
       </c>
       <c r="L6" t="n">
         <v>381705.7672639039</v>
@@ -26558,10 +26558,10 @@
         <v>384069.8893771198</v>
       </c>
       <c r="O6" t="n">
-        <v>348853.902195461</v>
+        <v>348853.9021954607</v>
       </c>
       <c r="P6" t="n">
-        <v>384069.8893771194</v>
+        <v>384069.8893771197</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>44.01998397707337</v>
       </c>
       <c r="F2" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859265</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859257</v>
-      </c>
       <c r="M2" t="n">
+        <v>46.97513661859265</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="N2" t="n">
-        <v>46.97513661859262</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932139211</v>
+        <v>25.41808932138856</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="N4" t="n">
         <v>1014.336461208615</v>
       </c>
-      <c r="N4" t="n">
-        <v>1014.336461208614</v>
-      </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26917,31 +26917,31 @@
         <v>44.01998397707337</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.955152641519234</v>
+        <v>2.955152641519248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519227</v>
+        <v>2.955152641519184</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>44.0199839770733</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932139211</v>
+        <v>25.41808932138856</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.358611271906</v>
+        <v>1064.35861127191</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>182.9350058063217</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>182.935005806322</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519234</v>
+        <v>2.955152641519248</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.4283176644598</v>
+        <v>338.4283176644599</v>
       </c>
       <c r="I8" t="n">
-        <v>206.5364689128663</v>
+        <v>206.5364689128669</v>
       </c>
       <c r="J8" t="n">
-        <v>3.276611732335114</v>
+        <v>3.276611732336324</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.4503478774918</v>
+        <v>143.4503478774927</v>
       </c>
       <c r="S8" t="n">
-        <v>206.6915682378585</v>
+        <v>206.6915682378588</v>
       </c>
       <c r="T8" t="n">
         <v>222.6485422837117</v>
@@ -27950,7 +27950,7 @@
         <v>111.7074193998389</v>
       </c>
       <c r="I9" t="n">
-        <v>87.51425548185915</v>
+        <v>87.51425548185941</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.76332026175986</v>
+        <v>96.76332026176033</v>
       </c>
       <c r="S9" t="n">
-        <v>170.6676464974596</v>
+        <v>170.6676464974597</v>
       </c>
       <c r="T9" t="n">
-        <v>199.944358656271</v>
+        <v>199.9443586562711</v>
       </c>
       <c r="U9" t="n">
         <v>225.9377851815426</v>
@@ -28029,13 +28029,13 @@
         <v>161.8196496983196</v>
       </c>
       <c r="I10" t="n">
-        <v>154.0720644440589</v>
+        <v>154.072064444059</v>
       </c>
       <c r="J10" t="n">
-        <v>90.11858207318971</v>
+        <v>90.11858207319017</v>
       </c>
       <c r="K10" t="n">
-        <v>16.94419376805677</v>
+        <v>16.94419376805751</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.32391176416418</v>
+        <v>82.32391176416471</v>
       </c>
       <c r="R10" t="n">
-        <v>175.2324426921923</v>
+        <v>175.2324426921926</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2178033282983</v>
+        <v>223.2178033282985</v>
       </c>
       <c r="T10" t="n">
         <v>227.7497451335101</v>
@@ -28108,7 +28108,7 @@
         <v>44.01998397707337</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="C14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="D14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="E14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="F14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="G14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="H14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="T14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="U14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="V14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="W14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="X14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="C16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="D16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="E16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="F16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="G16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="H16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="I16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="J16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="K16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="L16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="M16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="N16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="O16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="P16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="R16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="S16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="T16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="U16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="V16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="W16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="X16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.01998397707334</v>
+        <v>44.01998397707332</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859278</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185908</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859087</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859205</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859122</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1021832736538376</v>
+        <v>0.1021832736538233</v>
       </c>
       <c r="H8" t="n">
-        <v>1.046484451307364</v>
+        <v>1.046484451307218</v>
       </c>
       <c r="I8" t="n">
-        <v>3.939420657539576</v>
+        <v>3.939420657539026</v>
       </c>
       <c r="J8" t="n">
-        <v>8.672677622277403</v>
+        <v>8.672677622276193</v>
       </c>
       <c r="K8" t="n">
-        <v>12.99809559604435</v>
+        <v>12.99809559604254</v>
       </c>
       <c r="L8" t="n">
-        <v>16.12528695712799</v>
+        <v>16.12528695712573</v>
       </c>
       <c r="M8" t="n">
-        <v>17.94248874996942</v>
+        <v>17.94248874996691</v>
       </c>
       <c r="N8" t="n">
-        <v>18.23281697623839</v>
+        <v>18.23281697623584</v>
       </c>
       <c r="O8" t="n">
-        <v>17.21673204884304</v>
+        <v>17.21673204884063</v>
       </c>
       <c r="P8" t="n">
-        <v>14.69408248051392</v>
+        <v>14.69408248051187</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.03464399278586</v>
+        <v>11.03464399278432</v>
       </c>
       <c r="R8" t="n">
-        <v>6.418770063657879</v>
+        <v>6.418770063656983</v>
       </c>
       <c r="S8" t="n">
-        <v>2.328501348386826</v>
+        <v>2.328501348386501</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4473072804196742</v>
+        <v>0.4473072804196117</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008174661892307004</v>
+        <v>0.008174661892305863</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05467287137054153</v>
+        <v>0.05467287137053389</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5280248366575985</v>
+        <v>0.5280248366575248</v>
       </c>
       <c r="I9" t="n">
-        <v>1.882377369555926</v>
+        <v>1.882377369555663</v>
       </c>
       <c r="J9" t="n">
-        <v>5.165387378038751</v>
+        <v>5.16538737803803</v>
       </c>
       <c r="K9" t="n">
-        <v>8.828469759865033</v>
+        <v>8.8284697598638</v>
       </c>
       <c r="L9" t="n">
-        <v>11.87096709297657</v>
+        <v>11.87096709297492</v>
       </c>
       <c r="M9" t="n">
-        <v>13.8528586801587</v>
+        <v>13.85285868015677</v>
       </c>
       <c r="N9" t="n">
-        <v>14.21950262895501</v>
+        <v>14.21950262895302</v>
       </c>
       <c r="O9" t="n">
-        <v>13.00806690016564</v>
+        <v>13.00806690016382</v>
       </c>
       <c r="P9" t="n">
-        <v>10.44012049881858</v>
+        <v>10.44012049881713</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.978944071790529</v>
+        <v>6.978944071789555</v>
       </c>
       <c r="R9" t="n">
-        <v>3.394513890883273</v>
+        <v>3.394513890882799</v>
       </c>
       <c r="S9" t="n">
-        <v>1.01552460637826</v>
+        <v>1.015524606378118</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2203700385505598</v>
+        <v>0.2203700385505291</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00359689943227247</v>
+        <v>0.003596899432271968</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04583589877628085</v>
+        <v>0.04583589877627445</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4075228091200246</v>
+        <v>0.4075228091199677</v>
       </c>
       <c r="I10" t="n">
-        <v>1.378410483199428</v>
+        <v>1.378410483199236</v>
       </c>
       <c r="J10" t="n">
-        <v>3.240598043483056</v>
+        <v>3.240598043482604</v>
       </c>
       <c r="K10" t="n">
-        <v>5.325298057826084</v>
+        <v>5.32529805782534</v>
       </c>
       <c r="L10" t="n">
-        <v>6.814548078066339</v>
+        <v>6.814548078065387</v>
       </c>
       <c r="M10" t="n">
-        <v>7.18498547817646</v>
+        <v>7.184985478175458</v>
       </c>
       <c r="N10" t="n">
-        <v>7.014142582737602</v>
+        <v>7.014142582736622</v>
       </c>
       <c r="O10" t="n">
-        <v>6.478695947032864</v>
+        <v>6.478695947031959</v>
       </c>
       <c r="P10" t="n">
-        <v>5.543643611996729</v>
+        <v>5.543643611995956</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.838131487530209</v>
+        <v>3.838131487529673</v>
       </c>
       <c r="R10" t="n">
-        <v>2.060948684977137</v>
+        <v>2.060948684976849</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7987947086739124</v>
+        <v>0.7987947086738009</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1958442947713818</v>
+        <v>0.1958442947713544</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002500139933251686</v>
+        <v>0.002500139933251337</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32093,7 +32093,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987486</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33038,7 +33038,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33278,7 +33278,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138803</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33986,7 +33986,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002926</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34451,13 +34451,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.59840059013956</v>
+        <v>89.59840059013962</v>
       </c>
       <c r="K13" t="n">
         <v>250.0676435213929</v>
@@ -35574,7 +35574,7 @@
         <v>363.7773561472715</v>
       </c>
       <c r="M13" t="n">
-        <v>391.6533633705571</v>
+        <v>391.6533633705572</v>
       </c>
       <c r="N13" t="n">
         <v>388.8769301446134</v>
@@ -35583,7 +35583,7 @@
         <v>346.3731141997131</v>
       </c>
       <c r="P13" t="n">
-        <v>278.9770551221837</v>
+        <v>278.9770551221838</v>
       </c>
       <c r="Q13" t="n">
         <v>122.414222514967</v>
@@ -35665,7 +35665,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222472</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127271</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.59840059013953</v>
+        <v>89.59840059013951</v>
       </c>
       <c r="K16" t="n">
-        <v>250.0676435213929</v>
+        <v>250.0676435213928</v>
       </c>
       <c r="L16" t="n">
-        <v>363.7773561472714</v>
+        <v>363.7773561472713</v>
       </c>
       <c r="M16" t="n">
         <v>391.6533633705571</v>
@@ -35817,7 +35817,7 @@
         <v>388.8769301446134</v>
       </c>
       <c r="O16" t="n">
-        <v>346.3731141997131</v>
+        <v>346.373114199713</v>
       </c>
       <c r="P16" t="n">
         <v>278.9770551221837</v>
@@ -35963,7 +35963,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120766</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629123</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637023</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36361,10 +36361,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>580.108705547338</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36373,13 +36373,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>461.2821719260102</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887889</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36604,19 +36604,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>889.1354172278216</v>
       </c>
       <c r="O26" t="n">
-        <v>625.958171163537</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36686,7 +36686,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9229012776185</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37008,7 +37008,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>772.3745023460453</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>830.133944136559</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>322.0205389054387</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37315,10 +37315,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>571.0935268691426</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340061</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165706</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37482,7 +37482,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,13 +37555,13 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>582.7397956757063</v>
       </c>
       <c r="P38" t="n">
-        <v>685.7637716667631</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222472</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37634,7 +37634,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887901</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564848</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>511.6431999799572</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>742.5918998397242</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -38017,28 +38017,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>952.5051327011225</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>536.7090856642587</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
